--- a/HRB.L.xlsx
+++ b/HRB.L.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\Downloads\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE770B0-0B77-4106-B407-2F13EDD7C418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2213C48F-406A-427E-816A-B58A097A128E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A78289DF-E15C-4836-90AE-D385EE17C3A3}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{A78289DF-E15C-4836-90AE-D385EE17C3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,12 +160,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -177,20 +175,32 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,19 +224,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -564,111 +575,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E739EB-2379-4105-85E7-BF39B678E79E}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>2.641</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>770</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <f>I3*I2</f>
         <v>2033.57</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>539</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <f>494+7</f>
         <v>501</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <f>I4-I5+I6</f>
         <v>1995.57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -684,113 +696,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FACAAB-49E5-41E4-940C-28803AD104B0}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7265625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>196</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>76</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>58</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
